--- a/data/0. old data/0. raw/2016/companies/merck.xlsx
+++ b/data/0. old data/0. raw/2016/companies/merck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="560" windowWidth="22600" windowHeight="13000" activeTab="1"/>
+    <workbookView xWindow="540" yWindow="560" windowWidth="22600" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="merck" sheetId="1" r:id="rId1"/>
@@ -904,9 +904,6 @@
     <t>Birmensdorferstrasse 497</t>
   </si>
   <si>
-    <t>SGP c/o BBS Congress GmbH</t>
-  </si>
-  <si>
     <t>Bern 25</t>
   </si>
   <si>
@@ -1268,6 +1265,9 @@
   </si>
   <si>
     <t>à Wengen, Raffael</t>
+  </si>
+  <si>
+    <t>SGP</t>
   </si>
 </sst>
 </file>
@@ -2165,9 +2165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -2246,18 +2246,18 @@
         <v>1795</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>22</v>
@@ -2277,18 +2277,18 @@
         <v>1774</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -2310,18 +2310,18 @@
         <v>3048.1</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -2341,18 +2341,18 @@
         <v>1433.4</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
@@ -2370,18 +2370,18 @@
         <v>750</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>29</v>
@@ -2403,18 +2403,18 @@
         <v>1198.1600000000001</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -2432,18 +2432,18 @@
         <v>750</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
@@ -2461,18 +2461,18 @@
         <v>1000</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
@@ -2492,18 +2492,18 @@
         <v>732.15</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>37</v>
@@ -2523,18 +2523,18 @@
         <v>1053.2</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>39</v>
@@ -2554,18 +2554,18 @@
         <v>2034.45</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>41</v>
@@ -2583,18 +2583,18 @@
         <v>750</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>43</v>
@@ -2612,18 +2612,18 @@
         <v>750</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
@@ -2643,18 +2643,18 @@
         <v>5394.7</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>47</v>
@@ -2674,18 +2674,18 @@
         <v>2067.5500000000002</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>49</v>
@@ -2705,18 +2705,18 @@
         <v>717.18</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
@@ -2734,18 +2734,18 @@
         <v>750</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>39</v>
@@ -2765,18 +2765,18 @@
         <v>1584.4</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>53</v>
@@ -2794,18 +2794,18 @@
         <v>1125</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>55</v>
@@ -2823,18 +2823,18 @@
         <v>400</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>57</v>
@@ -2854,18 +2854,18 @@
         <v>336.85</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>27</v>
@@ -2883,18 +2883,18 @@
         <v>750</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -2914,18 +2914,18 @@
         <v>2596.5500000000002</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>61</v>
@@ -2945,18 +2945,18 @@
         <v>2124.15</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>62</v>
@@ -2976,18 +2976,18 @@
         <v>1724.4</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>63</v>
@@ -3007,18 +3007,18 @@
         <v>728.82</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>65</v>
@@ -3036,18 +3036,18 @@
         <v>104.86</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>67</v>
@@ -3065,18 +3065,18 @@
         <v>750</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>69</v>
@@ -3096,18 +3096,18 @@
         <v>1255.75</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>71</v>
@@ -3127,18 +3127,18 @@
         <v>664.3</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>73</v>
@@ -3156,18 +3156,18 @@
         <v>750</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>74</v>
@@ -3185,18 +3185,18 @@
         <v>104.86</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>76</v>
@@ -3214,18 +3214,18 @@
         <v>750</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>78</v>
@@ -3243,18 +3243,18 @@
         <v>1000</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>79</v>
@@ -3274,18 +3274,18 @@
         <v>861.16</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>80</v>
@@ -3303,18 +3303,18 @@
         <v>1000</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>81</v>
@@ -3332,18 +3332,18 @@
         <v>104.86</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>47</v>
@@ -3363,18 +3363,18 @@
         <v>631.9</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>82</v>
@@ -3394,18 +3394,18 @@
         <v>307.39999999999998</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>71</v>
@@ -3425,18 +3425,18 @@
         <v>686.11</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>83</v>
@@ -3458,18 +3458,18 @@
         <v>1341.49</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>84</v>
@@ -3487,18 +3487,18 @@
         <v>600</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>86</v>
@@ -3516,18 +3516,18 @@
         <v>1500</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>87</v>
@@ -3547,18 +3547,18 @@
         <v>3655.1</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>89</v>
@@ -3576,18 +3576,18 @@
         <v>750</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>91</v>
@@ -3605,18 +3605,18 @@
         <v>500</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>92</v>
@@ -3634,18 +3634,18 @@
         <v>1000</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>93</v>
@@ -3663,18 +3663,18 @@
         <v>300</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>95</v>
@@ -3696,18 +3696,18 @@
         <v>3108.4</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>97</v>
@@ -3727,18 +3727,18 @@
         <v>1599.55</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>99</v>
@@ -3758,18 +3758,18 @@
         <v>1064</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>101</v>
@@ -3789,18 +3789,18 @@
         <v>824.73</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>71</v>
@@ -3820,18 +3820,18 @@
         <v>2163.25</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>82</v>
@@ -3851,18 +3851,18 @@
         <v>1620</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>103</v>
@@ -3880,18 +3880,18 @@
         <v>750</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>105</v>
@@ -3909,18 +3909,18 @@
         <v>1750</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>27</v>
@@ -3938,18 +3938,18 @@
         <v>750</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>106</v>
@@ -3967,18 +3967,18 @@
         <v>750</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>108</v>
@@ -3998,18 +3998,18 @@
         <v>780.46</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>110</v>
@@ -4027,18 +4027,18 @@
         <v>700</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>111</v>
@@ -4058,18 +4058,18 @@
         <v>984.49</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>113</v>
@@ -4087,18 +4087,18 @@
         <v>68.260000000000005</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>114</v>
@@ -4120,18 +4120,18 @@
         <v>1472.95</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>115</v>
@@ -4149,18 +4149,18 @@
         <v>19250</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>117</v>
@@ -4180,18 +4180,18 @@
         <v>708.05</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>110</v>
@@ -4209,18 +4209,18 @@
         <v>800</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>118</v>
@@ -4240,18 +4240,18 @@
         <v>3261.6</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>120</v>
@@ -4271,18 +4271,18 @@
         <v>688.08</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>122</v>
@@ -4300,18 +4300,18 @@
         <v>750</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>124</v>
@@ -4331,18 +4331,18 @@
         <v>1038.07</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>126</v>
@@ -4362,18 +4362,18 @@
         <v>1842.15</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>127</v>
@@ -4393,18 +4393,18 @@
         <v>1496</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>110</v>
@@ -4422,18 +4422,18 @@
         <v>3250</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>128</v>
@@ -4455,18 +4455,18 @@
         <v>1334.65</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>129</v>
@@ -4486,18 +4486,18 @@
         <v>1133</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>97</v>
@@ -4517,7 +4517,7 @@
         <v>1386</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="27" customFormat="1">
@@ -4528,7 +4528,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>132</v>
@@ -4546,7 +4546,7 @@
         <v>6480</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4557,7 +4557,7 @@
         <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>135</v>
@@ -4575,7 +4575,7 @@
         <v>1000</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4586,7 +4586,7 @@
         <v>137</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>138</v>
@@ -4604,7 +4604,7 @@
         <v>2000</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4615,7 +4615,7 @@
         <v>140</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>141</v>
@@ -4633,7 +4633,7 @@
         <v>10000</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4644,7 +4644,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>143</v>
@@ -4662,7 +4662,7 @@
         <v>1000</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4673,7 +4673,7 @@
         <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>146</v>
@@ -4691,7 +4691,7 @@
         <v>1000</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4702,7 +4702,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>148</v>
@@ -4730,7 +4730,7 @@
         <v>93375.49</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4741,7 +4741,7 @@
         <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>151</v>
@@ -4759,7 +4759,7 @@
         <v>1500</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4770,7 +4770,7 @@
         <v>153</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>154</v>
@@ -4792,7 +4792,7 @@
         <v>6361.87</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4803,7 +4803,7 @@
         <v>51</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>39</v>
@@ -4821,7 +4821,7 @@
         <v>7000</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4832,7 +4832,7 @@
         <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>157</v>
@@ -4850,7 +4850,7 @@
         <v>191877.59</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4861,7 +4861,7 @@
         <v>46</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>159</v>
@@ -4879,7 +4879,7 @@
         <v>1500</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4890,7 +4890,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>161</v>
@@ -4908,7 +4908,7 @@
         <v>1200</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4919,7 +4919,7 @@
         <v>52</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>163</v>
@@ -4937,7 +4937,7 @@
         <v>1000</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4948,7 +4948,7 @@
         <v>165</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>166</v>
@@ -4966,7 +4966,7 @@
         <v>91485.33</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4977,7 +4977,7 @@
         <v>168</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>169</v>
@@ -4995,7 +4995,7 @@
         <v>304868.05</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5006,7 +5006,7 @@
         <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>172</v>
@@ -5024,7 +5024,7 @@
         <v>3137021.54</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5035,7 +5035,7 @@
         <v>174</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>175</v>
@@ -5053,7 +5053,7 @@
         <v>250</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5064,7 +5064,7 @@
         <v>54</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>177</v>
@@ -5082,7 +5082,7 @@
         <v>2000</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5093,7 +5093,7 @@
         <v>51</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>179</v>
@@ -5111,7 +5111,7 @@
         <v>30000</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5122,7 +5122,7 @@
         <v>36</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>181</v>
@@ -5140,7 +5140,7 @@
         <v>8500</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5151,7 +5151,7 @@
         <v>51</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>183</v>
@@ -5169,7 +5169,7 @@
         <v>1500</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5180,7 +5180,7 @@
         <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>185</v>
@@ -5198,7 +5198,7 @@
         <v>22032</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5209,7 +5209,7 @@
         <v>187</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>188</v>
@@ -5227,7 +5227,7 @@
         <v>2000</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5238,7 +5238,7 @@
         <v>190</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>191</v>
@@ -5256,7 +5256,7 @@
         <v>1800</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5267,7 +5267,7 @@
         <v>193</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>194</v>
@@ -5285,7 +5285,7 @@
         <v>2500</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5296,7 +5296,7 @@
         <v>196</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>197</v>
@@ -5314,7 +5314,7 @@
         <v>3300</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5325,7 +5325,7 @@
         <v>199</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>200</v>
@@ -5343,7 +5343,7 @@
         <v>2000</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5351,10 +5351,10 @@
         <v>201</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>202</v>
@@ -5372,7 +5372,7 @@
         <v>2000</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5383,7 +5383,7 @@
         <v>153</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>204</v>
@@ -5401,7 +5401,7 @@
         <v>2000</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5412,7 +5412,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>206</v>
@@ -5430,7 +5430,7 @@
         <v>2000</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5441,7 +5441,7 @@
         <v>100</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>206</v>
@@ -5459,7 +5459,7 @@
         <v>750</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5470,7 +5470,7 @@
         <v>171</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>163</v>
@@ -5496,7 +5496,7 @@
         <v>46331.86</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5507,7 +5507,7 @@
         <v>119</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>209</v>
@@ -5525,7 +5525,7 @@
         <v>9158.4</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5536,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>211</v>
@@ -5562,7 +5562,7 @@
         <v>155596.43</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5573,7 +5573,7 @@
         <v>213</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>214</v>
@@ -5591,7 +5591,7 @@
         <v>1000</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5602,7 +5602,7 @@
         <v>46</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>216</v>
@@ -5620,7 +5620,7 @@
         <v>6000</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5631,7 +5631,7 @@
         <v>54</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>55</v>
@@ -5657,7 +5657,7 @@
         <v>41119.67</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5668,7 +5668,7 @@
         <v>219</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>220</v>
@@ -5686,7 +5686,7 @@
         <v>1000</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5697,7 +5697,7 @@
         <v>222</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>223</v>
@@ -5715,7 +5715,7 @@
         <v>500</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5726,7 +5726,7 @@
         <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>225</v>
@@ -5748,7 +5748,7 @@
         <v>33750</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5759,7 +5759,7 @@
         <v>227</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>228</v>
@@ -5779,7 +5779,7 @@
         <v>1614.52</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5790,7 +5790,7 @@
         <v>230</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>231</v>
@@ -5810,7 +5810,7 @@
         <v>682.15</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5821,7 +5821,7 @@
         <v>233</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>234</v>
@@ -5847,7 +5847,7 @@
         <v>33610.050000000003</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5858,7 +5858,7 @@
         <v>56</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>57</v>
@@ -5876,7 +5876,7 @@
         <v>5163.05</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5887,7 +5887,7 @@
         <v>237</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>238</v>
@@ -5905,7 +5905,7 @@
         <v>78148.639999999999</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5916,7 +5916,7 @@
         <v>59</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>240</v>
@@ -5934,7 +5934,7 @@
         <v>4080</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5945,7 +5945,7 @@
         <v>242</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>243</v>
@@ -5963,7 +5963,7 @@
         <v>1000</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5974,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>245</v>
@@ -5992,7 +5992,7 @@
         <v>2500</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6003,7 +6003,7 @@
         <v>247</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="8"/>
@@ -6019,7 +6019,7 @@
         <v>1388.89</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6030,7 +6030,7 @@
         <v>59</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>127</v>
@@ -6048,7 +6048,7 @@
         <v>5600</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6059,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>250</v>
@@ -6077,7 +6077,7 @@
         <v>2500</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6088,7 +6088,7 @@
         <v>123</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>243</v>
@@ -6112,7 +6112,7 @@
         <v>25246.22</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6123,7 +6123,7 @@
         <v>123</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>253</v>
@@ -6141,7 +6141,7 @@
         <v>2300</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6152,7 +6152,7 @@
         <v>59</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>255</v>
@@ -6170,7 +6170,7 @@
         <v>2000</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6181,7 +6181,7 @@
         <v>257</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>258</v>
@@ -6199,7 +6199,7 @@
         <v>400</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6210,7 +6210,7 @@
         <v>260</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>261</v>
@@ -6228,7 +6228,7 @@
         <v>12750</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6239,7 +6239,7 @@
         <v>165</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>263</v>
@@ -6267,7 +6267,7 @@
         <v>60564.160000000003</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6278,7 +6278,7 @@
         <v>233</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>265</v>
@@ -6296,7 +6296,7 @@
         <v>10000</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6307,7 +6307,7 @@
         <v>59</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>61</v>
@@ -6325,7 +6325,7 @@
         <v>3500</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6336,7 +6336,7 @@
         <v>268</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>269</v>
@@ -6354,7 +6354,7 @@
         <v>1500</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6365,7 +6365,7 @@
         <v>59</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>271</v>
@@ -6383,7 +6383,7 @@
         <v>48000</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6394,7 +6394,7 @@
         <v>165</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>273</v>
@@ -6412,7 +6412,7 @@
         <v>2000</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6423,7 +6423,7 @@
         <v>275</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>276</v>
@@ -6441,7 +6441,7 @@
         <v>1820</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6452,7 +6452,7 @@
         <v>278</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>279</v>
@@ -6470,7 +6470,7 @@
         <v>300</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6481,7 +6481,7 @@
         <v>44</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>281</v>
@@ -6499,7 +6499,7 @@
         <v>29000</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6510,7 +6510,7 @@
         <v>44</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>281</v>
@@ -6529,7 +6529,7 @@
         <v>1500</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6537,10 +6537,10 @@
         <v>283</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>284</v>
@@ -6559,7 +6559,7 @@
         <v>1500</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6570,7 +6570,7 @@
         <v>219</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>286</v>
@@ -6588,7 +6588,7 @@
         <v>2500</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6599,7 +6599,7 @@
         <v>288</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>289</v>
@@ -6620,7 +6620,7 @@
         <v>21000</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6631,7 +6631,7 @@
         <v>291</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>132</v>
@@ -6650,7 +6650,7 @@
         <v>14580</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6661,7 +6661,7 @@
         <v>59</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>293</v>
@@ -6680,21 +6680,21 @@
         <v>3000</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="19"/>
@@ -6710,21 +6710,21 @@
         <v>5211</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="19"/>
@@ -6740,21 +6740,21 @@
         <v>1000</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="19"/>
@@ -6774,18 +6774,18 @@
         <v>80068</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>286</v>
@@ -6803,21 +6803,21 @@
         <v>4000</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B154" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="15"/>
@@ -6832,21 +6832,21 @@
         <v>7700</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="C155" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="15"/>
@@ -6861,21 +6861,21 @@
         <v>1000</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="15"/>
@@ -6890,21 +6890,21 @@
         <v>2000</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="C157" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="15"/>
@@ -6919,21 +6919,21 @@
         <v>2000</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="15"/>
@@ -6948,21 +6948,21 @@
         <v>22900</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="15"/>
@@ -6977,21 +6977,21 @@
         <v>3825</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="15"/>
@@ -7012,21 +7012,21 @@
         <v>40701.58</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="15"/>
@@ -7043,21 +7043,21 @@
         <v>902</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="15"/>
@@ -7072,21 +7072,21 @@
         <v>1080</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="15"/>
@@ -7101,21 +7101,21 @@
         <v>1000</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="15"/>
@@ -7130,21 +7130,21 @@
         <v>5220</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="15"/>
@@ -7159,21 +7159,21 @@
         <v>28858.46</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="15"/>
@@ -7188,21 +7188,21 @@
         <v>122.65</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="15"/>
@@ -7217,7 +7217,7 @@
         <v>1000</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7245,7 +7245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
@@ -7280,13 +7280,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="3">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -7303,13 +7303,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="3">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -7326,13 +7326,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="3">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -7349,13 +7349,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="3">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>

--- a/data/0. old data/0. raw/2016/companies/merck.xlsx
+++ b/data/0. old data/0. raw/2016/companies/merck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="560" windowWidth="22600" windowHeight="13000"/>
+    <workbookView xWindow="13300" yWindow="2440" windowWidth="22600" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="merck" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="415">
   <si>
     <t>name</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>Talstr 65</t>
-  </si>
-  <si>
-    <t>Häldeliweg 4</t>
   </si>
   <si>
     <t xml:space="preserve">Kriens </t>
@@ -2165,9 +2162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2220,13 +2217,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -2246,18 +2243,18 @@
         <v>1795</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>22</v>
@@ -2277,18 +2274,18 @@
         <v>1774</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -2310,18 +2307,18 @@
         <v>3048.1</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -2341,18 +2338,18 @@
         <v>1433.4</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
@@ -2370,18 +2367,18 @@
         <v>750</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>29</v>
@@ -2403,18 +2400,18 @@
         <v>1198.1600000000001</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -2432,18 +2429,18 @@
         <v>750</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
@@ -2461,18 +2458,18 @@
         <v>1000</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
@@ -2492,18 +2489,18 @@
         <v>732.15</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>37</v>
@@ -2523,18 +2520,18 @@
         <v>1053.2</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>39</v>
@@ -2554,18 +2551,18 @@
         <v>2034.45</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>41</v>
@@ -2583,18 +2580,18 @@
         <v>750</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>43</v>
@@ -2612,18 +2609,18 @@
         <v>750</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
@@ -2643,18 +2640,18 @@
         <v>5394.7</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>47</v>
@@ -2674,18 +2671,18 @@
         <v>2067.5500000000002</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>49</v>
@@ -2705,18 +2702,18 @@
         <v>717.18</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
@@ -2734,18 +2731,18 @@
         <v>750</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>39</v>
@@ -2765,18 +2762,18 @@
         <v>1584.4</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>53</v>
@@ -2794,18 +2791,18 @@
         <v>1125</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>55</v>
@@ -2823,18 +2820,18 @@
         <v>400</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>57</v>
@@ -2854,18 +2851,18 @@
         <v>336.85</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>27</v>
@@ -2883,18 +2880,18 @@
         <v>750</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -2914,18 +2911,18 @@
         <v>2596.5500000000002</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>61</v>
@@ -2945,18 +2942,18 @@
         <v>2124.15</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>62</v>
@@ -2976,18 +2973,18 @@
         <v>1724.4</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>63</v>
@@ -3007,18 +3004,18 @@
         <v>728.82</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>65</v>
@@ -3036,18 +3033,18 @@
         <v>104.86</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>67</v>
@@ -3065,18 +3062,18 @@
         <v>750</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>69</v>
@@ -3096,18 +3093,18 @@
         <v>1255.75</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>71</v>
@@ -3127,18 +3124,18 @@
         <v>664.3</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>73</v>
@@ -3156,18 +3153,18 @@
         <v>750</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>74</v>
@@ -3185,18 +3182,18 @@
         <v>104.86</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>76</v>
@@ -3214,18 +3211,18 @@
         <v>750</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>78</v>
@@ -3243,18 +3240,18 @@
         <v>1000</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>79</v>
@@ -3274,18 +3271,18 @@
         <v>861.16</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>80</v>
@@ -3303,18 +3300,18 @@
         <v>1000</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>81</v>
@@ -3332,18 +3329,18 @@
         <v>104.86</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>47</v>
@@ -3363,18 +3360,18 @@
         <v>631.9</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>82</v>
@@ -3394,18 +3391,18 @@
         <v>307.39999999999998</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>71</v>
@@ -3425,18 +3422,18 @@
         <v>686.11</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>83</v>
@@ -3458,18 +3455,18 @@
         <v>1341.49</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>84</v>
@@ -3487,18 +3484,18 @@
         <v>600</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>86</v>
@@ -3516,18 +3513,18 @@
         <v>1500</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>87</v>
@@ -3547,18 +3544,18 @@
         <v>3655.1</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>89</v>
@@ -3576,18 +3573,18 @@
         <v>750</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>91</v>
@@ -3605,18 +3602,18 @@
         <v>500</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>92</v>
@@ -3634,18 +3631,18 @@
         <v>1000</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>93</v>
@@ -3663,18 +3660,18 @@
         <v>300</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>95</v>
@@ -3696,18 +3693,18 @@
         <v>3108.4</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>97</v>
@@ -3727,18 +3724,18 @@
         <v>1599.55</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>99</v>
@@ -3758,18 +3755,18 @@
         <v>1064</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>101</v>
@@ -3789,18 +3786,18 @@
         <v>824.73</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>71</v>
@@ -3820,18 +3817,18 @@
         <v>2163.25</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>82</v>
@@ -3851,18 +3848,18 @@
         <v>1620</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>103</v>
@@ -3880,18 +3877,18 @@
         <v>750</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>105</v>
@@ -3909,18 +3906,18 @@
         <v>1750</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>27</v>
@@ -3938,18 +3935,18 @@
         <v>750</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>106</v>
@@ -3967,18 +3964,18 @@
         <v>750</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>108</v>
@@ -3998,18 +3995,18 @@
         <v>780.46</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>110</v>
@@ -4027,18 +4024,18 @@
         <v>700</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>111</v>
@@ -4058,18 +4055,18 @@
         <v>984.49</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>113</v>
@@ -4087,18 +4084,18 @@
         <v>68.260000000000005</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>114</v>
@@ -4120,21 +4117,21 @@
         <v>1472.95</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>115</v>
+        <v>335</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="15"/>
@@ -4149,21 +4146,21 @@
         <v>19250</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="15"/>
@@ -4180,18 +4177,18 @@
         <v>708.05</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>110</v>
@@ -4209,21 +4206,21 @@
         <v>800</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="15"/>
@@ -4240,21 +4237,21 @@
         <v>3261.6</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="15"/>
@@ -4271,21 +4268,21 @@
         <v>688.08</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="15"/>
@@ -4300,21 +4297,21 @@
         <v>750</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="15"/>
@@ -4331,21 +4328,21 @@
         <v>1038.07</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="15"/>
@@ -4362,21 +4359,21 @@
         <v>1842.15</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="15"/>
@@ -4393,18 +4390,18 @@
         <v>1496</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>110</v>
@@ -4422,21 +4419,21 @@
         <v>3250</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="15"/>
@@ -4455,21 +4452,21 @@
         <v>1334.65</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="15"/>
@@ -4486,18 +4483,18 @@
         <v>1133</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>97</v>
@@ -4517,21 +4514,21 @@
         <v>1386</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="27" customFormat="1">
       <c r="A78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
@@ -4546,21 +4543,21 @@
         <v>6480</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="15"/>
@@ -4575,21 +4572,21 @@
         <v>1000</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="15"/>
@@ -4604,21 +4601,21 @@
         <v>2000</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="15"/>
@@ -4633,21 +4630,21 @@
         <v>10000</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="15"/>
@@ -4662,21 +4659,21 @@
         <v>1000</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="15"/>
@@ -4691,21 +4688,21 @@
         <v>1000</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="16">
@@ -4730,21 +4727,21 @@
         <v>93375.49</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="15"/>
@@ -4759,21 +4756,21 @@
         <v>1500</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="15"/>
@@ -4792,18 +4789,18 @@
         <v>6361.87</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>39</v>
@@ -4821,21 +4818,21 @@
         <v>7000</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="15"/>
@@ -4850,21 +4847,21 @@
         <v>191877.59</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="15"/>
@@ -4879,21 +4876,21 @@
         <v>1500</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="15"/>
@@ -4908,21 +4905,21 @@
         <v>1200</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="15"/>
@@ -4937,21 +4934,21 @@
         <v>1000</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="15"/>
@@ -4966,21 +4963,21 @@
         <v>91485.33</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="15"/>
@@ -4995,21 +4992,21 @@
         <v>304868.05</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="16">
@@ -5024,21 +5021,21 @@
         <v>3137021.54</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="15"/>
@@ -5053,21 +5050,21 @@
         <v>250</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="15"/>
@@ -5082,21 +5079,21 @@
         <v>2000</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="16">
@@ -5111,21 +5108,21 @@
         <v>30000</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="15"/>
@@ -5140,21 +5137,21 @@
         <v>8500</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="15"/>
@@ -5169,21 +5166,21 @@
         <v>1500</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="15"/>
@@ -5198,21 +5195,21 @@
         <v>22032</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="15"/>
@@ -5227,21 +5224,21 @@
         <v>2000</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C102" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="15"/>
@@ -5256,21 +5253,21 @@
         <v>1800</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="15"/>
@@ -5285,21 +5282,21 @@
         <v>2500</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="15"/>
@@ -5314,21 +5311,21 @@
         <v>3300</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="15"/>
@@ -5343,21 +5340,21 @@
         <v>2000</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="15"/>
@@ -5372,21 +5369,21 @@
         <v>2000</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="15"/>
@@ -5401,21 +5398,21 @@
         <v>2000</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="15"/>
@@ -5430,21 +5427,21 @@
         <v>2000</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="15"/>
@@ -5459,21 +5456,21 @@
         <v>750</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="16">
@@ -5496,21 +5493,21 @@
         <v>46331.86</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="15"/>
@@ -5525,21 +5522,21 @@
         <v>9158.4</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="16">
@@ -5562,21 +5559,21 @@
         <v>155596.43</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="15"/>
@@ -5591,21 +5588,21 @@
         <v>1000</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="15"/>
@@ -5620,18 +5617,18 @@
         <v>6000</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>55</v>
@@ -5657,21 +5654,21 @@
         <v>41119.67</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C116" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="15"/>
@@ -5686,21 +5683,21 @@
         <v>1000</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="C117" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="16">
@@ -5715,21 +5712,21 @@
         <v>500</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="16">
@@ -5748,21 +5745,21 @@
         <v>33750</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C119" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="15"/>
@@ -5779,21 +5776,21 @@
         <v>1614.52</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C120" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="15"/>
@@ -5810,21 +5807,21 @@
         <v>682.15</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="16">
@@ -5847,18 +5844,18 @@
         <v>33610.050000000003</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>57</v>
@@ -5876,21 +5873,21 @@
         <v>5163.05</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="15"/>
@@ -5905,21 +5902,21 @@
         <v>78148.639999999999</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="15"/>
@@ -5934,21 +5931,21 @@
         <v>4080</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C125" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="15"/>
@@ -5963,21 +5960,21 @@
         <v>1000</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="15"/>
@@ -5992,18 +5989,18 @@
         <v>2500</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="C127" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="8"/>
@@ -6019,21 +6016,21 @@
         <v>1388.89</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="15"/>
@@ -6048,21 +6045,21 @@
         <v>5600</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="15"/>
@@ -6077,21 +6074,21 @@
         <v>2500</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="15"/>
@@ -6112,21 +6109,21 @@
         <v>25246.22</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="15"/>
@@ -6141,21 +6138,21 @@
         <v>2300</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="15"/>
@@ -6170,21 +6167,21 @@
         <v>2000</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="15"/>
@@ -6199,21 +6196,21 @@
         <v>400</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="15"/>
@@ -6228,21 +6225,21 @@
         <v>12750</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="16">
@@ -6267,21 +6264,21 @@
         <v>60564.160000000003</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="16">
@@ -6296,18 +6293,18 @@
         <v>10000</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>61</v>
@@ -6325,21 +6322,21 @@
         <v>3500</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="15"/>
@@ -6354,21 +6351,21 @@
         <v>1500</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="16">
@@ -6383,21 +6380,21 @@
         <v>48000</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="15"/>
@@ -6412,21 +6409,21 @@
         <v>2000</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="15"/>
@@ -6441,21 +6438,21 @@
         <v>1820</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="15"/>
@@ -6470,21 +6467,21 @@
         <v>300</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="15"/>
@@ -6499,21 +6496,21 @@
         <v>29000</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="19"/>
@@ -6529,21 +6526,21 @@
         <v>1500</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="19"/>
@@ -6559,21 +6556,21 @@
         <v>1500</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="19"/>
@@ -6588,21 +6585,21 @@
         <v>2500</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="20">
@@ -6620,21 +6617,21 @@
         <v>21000</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="C148" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="19"/>
@@ -6650,21 +6647,21 @@
         <v>14580</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="19"/>
@@ -6680,21 +6677,21 @@
         <v>3000</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="19"/>
@@ -6710,21 +6707,21 @@
         <v>5211</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="19"/>
@@ -6740,21 +6737,21 @@
         <v>1000</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="19"/>
@@ -6774,21 +6771,21 @@
         <v>80068</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="19"/>
@@ -6803,21 +6800,21 @@
         <v>4000</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="15"/>
@@ -6832,21 +6829,21 @@
         <v>7700</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="C155" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="15"/>
@@ -6861,21 +6858,21 @@
         <v>1000</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="15"/>
@@ -6890,21 +6887,21 @@
         <v>2000</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="C157" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="15"/>
@@ -6919,21 +6916,21 @@
         <v>2000</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="15"/>
@@ -6948,21 +6945,21 @@
         <v>22900</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D159" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="15"/>
@@ -6977,21 +6974,21 @@
         <v>3825</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="15"/>
@@ -7012,21 +7009,21 @@
         <v>40701.58</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="15"/>
@@ -7043,21 +7040,21 @@
         <v>902</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="15"/>
@@ -7072,21 +7069,21 @@
         <v>1080</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="15"/>
@@ -7101,21 +7098,21 @@
         <v>1000</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="15"/>
@@ -7130,21 +7127,21 @@
         <v>5220</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="15"/>
@@ -7159,21 +7156,21 @@
         <v>28858.46</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="15"/>
@@ -7188,21 +7185,21 @@
         <v>122.65</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="15"/>
@@ -7217,7 +7214,7 @@
         <v>1000</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7280,13 +7277,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="3">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -7303,13 +7300,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="3">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -7326,13 +7323,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="3">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -7349,13 +7346,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="3">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>

--- a/data/0. old data/0. raw/2016/companies/merck.xlsx
+++ b/data/0. old data/0. raw/2016/companies/merck.xlsx
@@ -1006,9 +1006,6 @@
     <t>Walzmuehlestrasse 60</t>
   </si>
   <si>
-    <t>360 deg; Kinderwunsch Zentrum Zürich</t>
-  </si>
-  <si>
     <t>Alte Landstrasse 112</t>
   </si>
   <si>
@@ -1265,6 +1262,9 @@
   </si>
   <si>
     <t>SGP</t>
+  </si>
+  <si>
+    <t>360° Kinderwunsch Zentrum Zürich</t>
   </si>
 </sst>
 </file>
@@ -2163,8 +2163,8 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -2243,18 +2243,18 @@
         <v>1795</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>22</v>
@@ -2274,18 +2274,18 @@
         <v>1774</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -2307,18 +2307,18 @@
         <v>3048.1</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -2338,18 +2338,18 @@
         <v>1433.4</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
@@ -2367,18 +2367,18 @@
         <v>750</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>29</v>
@@ -2400,18 +2400,18 @@
         <v>1198.1600000000001</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>31</v>
@@ -2429,18 +2429,18 @@
         <v>750</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
@@ -2458,18 +2458,18 @@
         <v>1000</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
@@ -2489,18 +2489,18 @@
         <v>732.15</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>37</v>
@@ -2520,18 +2520,18 @@
         <v>1053.2</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>39</v>
@@ -2551,18 +2551,18 @@
         <v>2034.45</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>41</v>
@@ -2580,18 +2580,18 @@
         <v>750</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>43</v>
@@ -2609,18 +2609,18 @@
         <v>750</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
@@ -2640,18 +2640,18 @@
         <v>5394.7</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>47</v>
@@ -2671,18 +2671,18 @@
         <v>2067.5500000000002</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>49</v>
@@ -2702,18 +2702,18 @@
         <v>717.18</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
@@ -2731,18 +2731,18 @@
         <v>750</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>39</v>
@@ -2762,18 +2762,18 @@
         <v>1584.4</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>53</v>
@@ -2791,18 +2791,18 @@
         <v>1125</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>55</v>
@@ -2820,18 +2820,18 @@
         <v>400</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>57</v>
@@ -2851,18 +2851,18 @@
         <v>336.85</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>27</v>
@@ -2880,18 +2880,18 @@
         <v>750</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -2911,18 +2911,18 @@
         <v>2596.5500000000002</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>61</v>
@@ -2942,18 +2942,18 @@
         <v>2124.15</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>62</v>
@@ -2973,18 +2973,18 @@
         <v>1724.4</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>63</v>
@@ -3004,18 +3004,18 @@
         <v>728.82</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>65</v>
@@ -3033,18 +3033,18 @@
         <v>104.86</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>67</v>
@@ -3062,18 +3062,18 @@
         <v>750</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>69</v>
@@ -3093,18 +3093,18 @@
         <v>1255.75</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>71</v>
@@ -3124,18 +3124,18 @@
         <v>664.3</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>73</v>
@@ -3153,18 +3153,18 @@
         <v>750</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>74</v>
@@ -3182,18 +3182,18 @@
         <v>104.86</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>76</v>
@@ -3211,18 +3211,18 @@
         <v>750</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>78</v>
@@ -3240,18 +3240,18 @@
         <v>1000</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>79</v>
@@ -3271,18 +3271,18 @@
         <v>861.16</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>80</v>
@@ -3300,18 +3300,18 @@
         <v>1000</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>81</v>
@@ -3329,18 +3329,18 @@
         <v>104.86</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>47</v>
@@ -3360,18 +3360,18 @@
         <v>631.9</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>82</v>
@@ -3391,18 +3391,18 @@
         <v>307.39999999999998</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>71</v>
@@ -3422,18 +3422,18 @@
         <v>686.11</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>83</v>
@@ -3455,18 +3455,18 @@
         <v>1341.49</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>84</v>
@@ -3484,18 +3484,18 @@
         <v>600</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>86</v>
@@ -3513,18 +3513,18 @@
         <v>1500</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>87</v>
@@ -3544,18 +3544,18 @@
         <v>3655.1</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>89</v>
@@ -3573,18 +3573,18 @@
         <v>750</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>91</v>
@@ -3602,18 +3602,18 @@
         <v>500</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>92</v>
@@ -3631,18 +3631,18 @@
         <v>1000</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>93</v>
@@ -3660,18 +3660,18 @@
         <v>300</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>95</v>
@@ -3693,18 +3693,18 @@
         <v>3108.4</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>97</v>
@@ -3724,18 +3724,18 @@
         <v>1599.55</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>99</v>
@@ -3755,18 +3755,18 @@
         <v>1064</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>101</v>
@@ -3786,18 +3786,18 @@
         <v>824.73</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>71</v>
@@ -3817,18 +3817,18 @@
         <v>2163.25</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>82</v>
@@ -3848,18 +3848,18 @@
         <v>1620</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>103</v>
@@ -3877,18 +3877,18 @@
         <v>750</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>105</v>
@@ -3906,18 +3906,18 @@
         <v>1750</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>27</v>
@@ -3935,18 +3935,18 @@
         <v>750</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>106</v>
@@ -3964,18 +3964,18 @@
         <v>750</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>108</v>
@@ -3995,18 +3995,18 @@
         <v>780.46</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>110</v>
@@ -4024,18 +4024,18 @@
         <v>700</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>111</v>
@@ -4055,18 +4055,18 @@
         <v>984.49</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>113</v>
@@ -4084,18 +4084,18 @@
         <v>68.260000000000005</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>114</v>
@@ -4117,18 +4117,18 @@
         <v>1472.95</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>110</v>
@@ -4146,18 +4146,18 @@
         <v>19250</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>116</v>
@@ -4177,18 +4177,18 @@
         <v>708.05</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>110</v>
@@ -4206,18 +4206,18 @@
         <v>800</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>117</v>
@@ -4237,18 +4237,18 @@
         <v>3261.6</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>119</v>
@@ -4268,18 +4268,18 @@
         <v>688.08</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>121</v>
@@ -4297,18 +4297,18 @@
         <v>750</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>123</v>
@@ -4328,18 +4328,18 @@
         <v>1038.07</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>125</v>
@@ -4359,18 +4359,18 @@
         <v>1842.15</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>126</v>
@@ -4390,18 +4390,18 @@
         <v>1496</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>110</v>
@@ -4419,18 +4419,18 @@
         <v>3250</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>127</v>
@@ -4452,18 +4452,18 @@
         <v>1334.65</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>128</v>
@@ -4483,18 +4483,18 @@
         <v>1133</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>97</v>
@@ -4514,7 +4514,7 @@
         <v>1386</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="27" customFormat="1">
@@ -4525,7 +4525,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>131</v>
@@ -4543,7 +4543,7 @@
         <v>6480</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4554,7 +4554,7 @@
         <v>133</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>134</v>
@@ -4572,7 +4572,7 @@
         <v>1000</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4583,7 +4583,7 @@
         <v>136</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>137</v>
@@ -4601,7 +4601,7 @@
         <v>2000</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4612,7 +4612,7 @@
         <v>139</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>140</v>
@@ -4630,7 +4630,7 @@
         <v>10000</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4641,7 +4641,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>142</v>
@@ -4659,7 +4659,7 @@
         <v>1000</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4670,7 +4670,7 @@
         <v>144</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>145</v>
@@ -4688,7 +4688,7 @@
         <v>1000</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4699,7 +4699,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>147</v>
@@ -4727,7 +4727,7 @@
         <v>93375.49</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4738,7 +4738,7 @@
         <v>149</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>150</v>
@@ -4756,7 +4756,7 @@
         <v>1500</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4767,7 +4767,7 @@
         <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>153</v>
@@ -4789,7 +4789,7 @@
         <v>6361.87</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4800,7 +4800,7 @@
         <v>51</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>39</v>
@@ -4818,7 +4818,7 @@
         <v>7000</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4829,7 +4829,7 @@
         <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>156</v>
@@ -4847,7 +4847,7 @@
         <v>191877.59</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4858,7 +4858,7 @@
         <v>46</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>158</v>
@@ -4876,7 +4876,7 @@
         <v>1500</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4887,7 +4887,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>160</v>
@@ -4905,7 +4905,7 @@
         <v>1200</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4916,7 +4916,7 @@
         <v>52</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>162</v>
@@ -4934,7 +4934,7 @@
         <v>1000</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4945,7 +4945,7 @@
         <v>164</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>165</v>
@@ -4963,7 +4963,7 @@
         <v>91485.33</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4974,7 +4974,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>168</v>
@@ -4992,7 +4992,7 @@
         <v>304868.05</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5003,7 +5003,7 @@
         <v>170</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>171</v>
@@ -5021,7 +5021,7 @@
         <v>3137021.54</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5032,7 +5032,7 @@
         <v>173</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>174</v>
@@ -5050,7 +5050,7 @@
         <v>250</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5061,7 +5061,7 @@
         <v>54</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>176</v>
@@ -5079,7 +5079,7 @@
         <v>2000</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5090,7 +5090,7 @@
         <v>51</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>178</v>
@@ -5108,7 +5108,7 @@
         <v>30000</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5119,7 +5119,7 @@
         <v>36</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>180</v>
@@ -5137,7 +5137,7 @@
         <v>8500</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5148,7 +5148,7 @@
         <v>51</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>182</v>
@@ -5166,7 +5166,7 @@
         <v>1500</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5177,7 +5177,7 @@
         <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>184</v>
@@ -5195,7 +5195,7 @@
         <v>22032</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5206,7 +5206,7 @@
         <v>186</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>187</v>
@@ -5224,7 +5224,7 @@
         <v>2000</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5235,7 +5235,7 @@
         <v>189</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>190</v>
@@ -5253,7 +5253,7 @@
         <v>1800</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5264,7 +5264,7 @@
         <v>192</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>193</v>
@@ -5282,7 +5282,7 @@
         <v>2500</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5293,7 +5293,7 @@
         <v>195</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>196</v>
@@ -5311,7 +5311,7 @@
         <v>3300</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5322,7 +5322,7 @@
         <v>198</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>199</v>
@@ -5340,7 +5340,7 @@
         <v>2000</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5348,10 +5348,10 @@
         <v>200</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>201</v>
@@ -5369,7 +5369,7 @@
         <v>2000</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5380,7 +5380,7 @@
         <v>152</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>203</v>
@@ -5398,7 +5398,7 @@
         <v>2000</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5409,7 +5409,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>205</v>
@@ -5427,7 +5427,7 @@
         <v>2000</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5438,7 +5438,7 @@
         <v>100</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>205</v>
@@ -5456,7 +5456,7 @@
         <v>750</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5467,7 +5467,7 @@
         <v>170</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>162</v>
@@ -5493,7 +5493,7 @@
         <v>46331.86</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5504,7 +5504,7 @@
         <v>118</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>208</v>
@@ -5522,7 +5522,7 @@
         <v>9158.4</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5533,7 +5533,7 @@
         <v>44</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>210</v>
@@ -5559,7 +5559,7 @@
         <v>155596.43</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5570,7 +5570,7 @@
         <v>212</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>213</v>
@@ -5588,7 +5588,7 @@
         <v>1000</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5599,7 +5599,7 @@
         <v>46</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>215</v>
@@ -5617,7 +5617,7 @@
         <v>6000</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5628,7 +5628,7 @@
         <v>54</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>55</v>
@@ -5654,7 +5654,7 @@
         <v>41119.67</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5665,7 +5665,7 @@
         <v>218</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>219</v>
@@ -5683,7 +5683,7 @@
         <v>1000</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5694,7 +5694,7 @@
         <v>221</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>222</v>
@@ -5712,7 +5712,7 @@
         <v>500</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5723,7 +5723,7 @@
         <v>120</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>224</v>
@@ -5745,7 +5745,7 @@
         <v>33750</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5756,7 +5756,7 @@
         <v>226</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>227</v>
@@ -5776,7 +5776,7 @@
         <v>1614.52</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5787,7 +5787,7 @@
         <v>229</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>230</v>
@@ -5807,7 +5807,7 @@
         <v>682.15</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5818,7 +5818,7 @@
         <v>232</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>233</v>
@@ -5844,7 +5844,7 @@
         <v>33610.050000000003</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5855,7 +5855,7 @@
         <v>56</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>57</v>
@@ -5873,7 +5873,7 @@
         <v>5163.05</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5884,7 +5884,7 @@
         <v>236</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>237</v>
@@ -5902,7 +5902,7 @@
         <v>78148.639999999999</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5913,7 +5913,7 @@
         <v>59</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>239</v>
@@ -5931,7 +5931,7 @@
         <v>4080</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5942,7 +5942,7 @@
         <v>241</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>242</v>
@@ -5960,7 +5960,7 @@
         <v>1000</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5971,7 +5971,7 @@
         <v>44</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>244</v>
@@ -5989,7 +5989,7 @@
         <v>2500</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6000,7 +6000,7 @@
         <v>246</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="8"/>
@@ -6016,7 +6016,7 @@
         <v>1388.89</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6027,7 +6027,7 @@
         <v>59</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>126</v>
@@ -6045,7 +6045,7 @@
         <v>5600</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6056,7 +6056,7 @@
         <v>122</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>249</v>
@@ -6074,7 +6074,7 @@
         <v>2500</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6085,7 +6085,7 @@
         <v>122</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>242</v>
@@ -6109,7 +6109,7 @@
         <v>25246.22</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6120,7 +6120,7 @@
         <v>122</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>252</v>
@@ -6138,7 +6138,7 @@
         <v>2300</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6149,7 +6149,7 @@
         <v>59</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>254</v>
@@ -6167,7 +6167,7 @@
         <v>2000</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6178,7 +6178,7 @@
         <v>256</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>257</v>
@@ -6196,7 +6196,7 @@
         <v>400</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6207,7 +6207,7 @@
         <v>259</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>260</v>
@@ -6225,7 +6225,7 @@
         <v>12750</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6236,7 +6236,7 @@
         <v>164</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>262</v>
@@ -6264,7 +6264,7 @@
         <v>60564.160000000003</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6275,7 +6275,7 @@
         <v>232</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>264</v>
@@ -6293,7 +6293,7 @@
         <v>10000</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6304,7 +6304,7 @@
         <v>59</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>61</v>
@@ -6322,7 +6322,7 @@
         <v>3500</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6333,7 +6333,7 @@
         <v>267</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>268</v>
@@ -6351,7 +6351,7 @@
         <v>1500</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6362,7 +6362,7 @@
         <v>59</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>270</v>
@@ -6380,7 +6380,7 @@
         <v>48000</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6391,7 +6391,7 @@
         <v>164</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>272</v>
@@ -6409,7 +6409,7 @@
         <v>2000</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6420,7 +6420,7 @@
         <v>274</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>275</v>
@@ -6438,7 +6438,7 @@
         <v>1820</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6449,7 +6449,7 @@
         <v>277</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>278</v>
@@ -6467,7 +6467,7 @@
         <v>300</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6478,7 +6478,7 @@
         <v>44</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>280</v>
@@ -6496,7 +6496,7 @@
         <v>29000</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6507,7 +6507,7 @@
         <v>44</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>280</v>
@@ -6526,7 +6526,7 @@
         <v>1500</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6534,10 +6534,10 @@
         <v>282</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>283</v>
@@ -6556,7 +6556,7 @@
         <v>1500</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6567,7 +6567,7 @@
         <v>218</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>285</v>
@@ -6585,7 +6585,7 @@
         <v>2500</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6596,7 +6596,7 @@
         <v>287</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>288</v>
@@ -6617,7 +6617,7 @@
         <v>21000</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6628,7 +6628,7 @@
         <v>290</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>131</v>
@@ -6647,7 +6647,7 @@
         <v>14580</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6658,7 +6658,7 @@
         <v>59</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>292</v>
@@ -6677,18 +6677,18 @@
         <v>3000</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>294</v>
@@ -6707,7 +6707,7 @@
         <v>5211</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6718,7 +6718,7 @@
         <v>24</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>296</v>
@@ -6737,7 +6737,7 @@
         <v>1000</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6748,7 +6748,7 @@
         <v>298</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>299</v>
@@ -6771,7 +6771,7 @@
         <v>80068</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6782,7 +6782,7 @@
         <v>218</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>285</v>
@@ -6800,7 +6800,7 @@
         <v>4000</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6808,13 +6808,13 @@
         <v>301</v>
       </c>
       <c r="B154" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="15"/>
@@ -6829,7 +6829,7 @@
         <v>7700</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6840,7 +6840,7 @@
         <v>303</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>304</v>
@@ -6858,7 +6858,7 @@
         <v>1000</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6869,7 +6869,7 @@
         <v>19</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>306</v>
@@ -6887,7 +6887,7 @@
         <v>2000</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6898,7 +6898,7 @@
         <v>308</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>309</v>
@@ -6916,7 +6916,7 @@
         <v>2000</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6927,7 +6927,7 @@
         <v>59</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>311</v>
@@ -6945,7 +6945,7 @@
         <v>22900</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6956,7 +6956,7 @@
         <v>118</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>313</v>
@@ -6974,7 +6974,7 @@
         <v>3825</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6985,7 +6985,7 @@
         <v>59</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>315</v>
@@ -7009,7 +7009,7 @@
         <v>40701.58</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7020,7 +7020,7 @@
         <v>59</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>316</v>
@@ -7040,7 +7040,7 @@
         <v>902</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7051,7 +7051,7 @@
         <v>59</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>317</v>
@@ -7069,7 +7069,7 @@
         <v>1080</v>
       </c>
       <c r="M162" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7080,7 +7080,7 @@
         <v>319</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>320</v>
@@ -7098,7 +7098,7 @@
         <v>1000</v>
       </c>
       <c r="M163" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7109,7 +7109,7 @@
         <v>59</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>322</v>
@@ -7127,7 +7127,7 @@
         <v>5220</v>
       </c>
       <c r="M164" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7138,7 +7138,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>324</v>
@@ -7156,7 +7156,7 @@
         <v>28858.46</v>
       </c>
       <c r="M165" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7167,7 +7167,7 @@
         <v>326</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>327</v>
@@ -7185,21 +7185,21 @@
         <v>122.65</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="4" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="15"/>
@@ -7214,7 +7214,7 @@
         <v>1000</v>
       </c>
       <c r="M167" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7277,13 +7277,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="3">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -7300,13 +7300,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="3">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -7323,13 +7323,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" s="3">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -7346,13 +7346,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="3">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
